--- a/tests/Data/RestdAllState.xlsx
+++ b/tests/Data/RestdAllState.xlsx
@@ -232,7 +232,7 @@
     <t xml:space="preserve">Silver Test</t>
   </si>
   <si>
-    <t xml:space="preserve">123 Connecticut CT</t>
+    <t xml:space="preserve">123 Connecticut CT usa</t>
   </si>
   <si>
     <t xml:space="preserve">52528</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">DE</t>
   </si>
   <si>
-    <t xml:space="preserve">123 Delaware DE</t>
+    <t xml:space="preserve">123 Delaware DE usa</t>
   </si>
   <si>
     <t xml:space="preserve">52529</t>
@@ -322,7 +322,7 @@
     <t xml:space="preserve">Sunflower Test</t>
   </si>
   <si>
-    <t xml:space="preserve">123 Indiana IN</t>
+    <t xml:space="preserve">123 Indiana IN usa</t>
   </si>
   <si>
     <t xml:space="preserve">52536</t>
@@ -334,7 +334,7 @@
     <t xml:space="preserve">Bluegrass Test</t>
   </si>
   <si>
-    <t xml:space="preserve">123 Kansas KS</t>
+    <t xml:space="preserve">123 Kansas KS usa</t>
   </si>
   <si>
     <t xml:space="preserve">52537</t>
@@ -346,7 +346,7 @@
     <t xml:space="preserve">Chesapeake Test</t>
   </si>
   <si>
-    <t xml:space="preserve">123 Massachusetts MA</t>
+    <t xml:space="preserve">123 Massachusetts MA usa</t>
   </si>
   <si>
     <t xml:space="preserve">52540</t>
@@ -376,7 +376,7 @@
     <t xml:space="preserve">GreatLake Test</t>
   </si>
   <si>
-    <t xml:space="preserve">123 Maine ME</t>
+    <t xml:space="preserve">123 Maine ME usa</t>
   </si>
   <si>
     <t xml:space="preserve">52542</t>
@@ -388,7 +388,7 @@
     <t xml:space="preserve">NorthStar Test</t>
   </si>
   <si>
-    <t xml:space="preserve">123  michigan mi usa</t>
+    <t xml:space="preserve">123  michigan mi </t>
   </si>
   <si>
     <t xml:space="preserve">52543</t>
@@ -427,7 +427,7 @@
     <t xml:space="preserve">TarHeel Test</t>
   </si>
   <si>
-    <t xml:space="preserve">123 Montana MT</t>
+    <t xml:space="preserve">123 Montana MT usa</t>
   </si>
   <si>
     <t xml:space="preserve">$ 1,000,000 / $ 1,000,000</t>
@@ -442,7 +442,7 @@
     <t xml:space="preserve">Plains Test</t>
   </si>
   <si>
-    <t xml:space="preserve">123 North Dakota ND</t>
+    <t xml:space="preserve">123 avenue nd usa</t>
   </si>
   <si>
     <t xml:space="preserve">52549</t>
@@ -481,7 +481,7 @@
     <t xml:space="preserve">Empire Test</t>
   </si>
   <si>
-    <t xml:space="preserve">123 Nevada NV</t>
+    <t xml:space="preserve">123 Nevada NV usa</t>
   </si>
   <si>
     <t xml:space="preserve">52554</t>
@@ -619,7 +619,7 @@
     <t xml:space="preserve">Badger Test</t>
   </si>
   <si>
-    <t xml:space="preserve">123 Washington WA</t>
+    <t xml:space="preserve">123 Washington WA usa</t>
   </si>
   <si>
     <t xml:space="preserve">52568</t>
@@ -631,7 +631,7 @@
     <t xml:space="preserve">Mountain Test</t>
   </si>
   <si>
-    <t xml:space="preserve">123 Wisconsin WI</t>
+    <t xml:space="preserve">123 Wisconsin WI usa</t>
   </si>
   <si>
     <t xml:space="preserve">52569</t>
@@ -643,7 +643,7 @@
     <t xml:space="preserve">Cowboy Test</t>
   </si>
   <si>
-    <t xml:space="preserve">123 Wyoming WY usa</t>
+    <t xml:space="preserve">wy usa</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -1322,8 +1322,8 @@
   </sheetPr>
   <dimension ref="A1:AU1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P41" activeCellId="0" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1335,12 +1335,12 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="8.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="10" style="1" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="26.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="17" style="1" width="8.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="25.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="26" style="1" width="8.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="21.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="19.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="19.93"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="8.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="19.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="38" style="1" width="8.88"/>

--- a/tests/Data/RestdAllState.xlsx
+++ b/tests/Data/RestdAllState.xlsx
@@ -376,7 +376,7 @@
     <t xml:space="preserve">GreatLake Test</t>
   </si>
   <si>
-    <t xml:space="preserve">123 Maine ME usa</t>
+    <t xml:space="preserve">Maine ME usa</t>
   </si>
   <si>
     <t xml:space="preserve">52542</t>
@@ -1322,8 +1322,8 @@
   </sheetPr>
   <dimension ref="A1:AU1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P41" activeCellId="0" sqref="P41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/tests/Data/RestdAllState.xlsx
+++ b/tests/Data/RestdAllState.xlsx
@@ -388,7 +388,7 @@
     <t xml:space="preserve">NorthStar Test</t>
   </si>
   <si>
-    <t xml:space="preserve">123  michigan mi </t>
+    <t xml:space="preserve">michigan mi usa</t>
   </si>
   <si>
     <t xml:space="preserve">52543</t>
@@ -427,7 +427,7 @@
     <t xml:space="preserve">TarHeel Test</t>
   </si>
   <si>
-    <t xml:space="preserve">123 Montana MT usa</t>
+    <t xml:space="preserve">Montana MT usa</t>
   </si>
   <si>
     <t xml:space="preserve">$ 1,000,000 / $ 1,000,000</t>
@@ -1322,8 +1322,8 @@
   </sheetPr>
   <dimension ref="A1:AU1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P19" activeCellId="0" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
